--- a/src/test/resources/data/moduleSheets/jdgroupUPDATEFINAL.xlsx
+++ b/src/test/resources/data/moduleSheets/jdgroupUPDATEFINAL.xlsx
@@ -3,31 +3,31 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EC373D9-006C-4ADE-9A93-012CC829BFE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477B6552-AC5F-4193-BC40-ED9621C8C334}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="17" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="parrallel_ic_Login++" sheetId="77" r:id="rId1"/>
-    <sheet name="IC" sheetId="23" r:id="rId2"/>
-    <sheet name="ic_RemoveFromcart++" sheetId="67" r:id="rId3"/>
-    <sheet name="ic_verifyWishlistItem++" sheetId="66" r:id="rId4"/>
-    <sheet name="ic_NavigetoWishlist++" sheetId="65" r:id="rId5"/>
-    <sheet name="Magento_UserInfoVerification++" sheetId="64" r:id="rId6"/>
-    <sheet name="IC_ProductsSortBy++" sheetId="63" r:id="rId7"/>
-    <sheet name="ic_SubscribeNews_DupliEmailID++" sheetId="62" r:id="rId8"/>
-    <sheet name="EnterSpouseInfor++" sheetId="61" r:id="rId9"/>
-    <sheet name="EnterContact++" sheetId="58" r:id="rId10"/>
-    <sheet name="CreditEnterAddressDetails++" sheetId="59" r:id="rId11"/>
-    <sheet name="CreditEnterEmploymentDetails++" sheetId="60" r:id="rId12"/>
-    <sheet name="EnterBasicDetails++" sheetId="57" r:id="rId13"/>
-    <sheet name="CreditStatusVerification++" sheetId="56" r:id="rId14"/>
-    <sheet name="CreditApp_NavigateFilter++" sheetId="55" r:id="rId15"/>
-    <sheet name="giftCardReport++" sheetId="54" r:id="rId16"/>
-    <sheet name="adminUserUpdate++" sheetId="52" r:id="rId17"/>
-    <sheet name="ICUpdateUser++" sheetId="51" r:id="rId18"/>
-    <sheet name="SapCustomer++" sheetId="50" r:id="rId19"/>
-    <sheet name="Suites" sheetId="22" r:id="rId20"/>
+    <sheet name="ic_RemoveFromcart++" sheetId="67" r:id="rId1"/>
+    <sheet name="ic_verifyWishlistItem++" sheetId="66" r:id="rId2"/>
+    <sheet name="ic_NavigetoWishlist++" sheetId="65" r:id="rId3"/>
+    <sheet name="Magento_UserInfoVerification++" sheetId="64" r:id="rId4"/>
+    <sheet name="IC_ProductsSortBy++" sheetId="63" r:id="rId5"/>
+    <sheet name="ic_SubscribeNews_DupliEmailID++" sheetId="62" r:id="rId6"/>
+    <sheet name="EnterSpouseInfor++" sheetId="61" r:id="rId7"/>
+    <sheet name="EnterContact++" sheetId="58" r:id="rId8"/>
+    <sheet name="CreditEnterAddressDetails++" sheetId="59" r:id="rId9"/>
+    <sheet name="CreditEnterEmploymentDetails++" sheetId="60" r:id="rId10"/>
+    <sheet name="EnterBasicDetails++" sheetId="57" r:id="rId11"/>
+    <sheet name="CreditStatusVerification++" sheetId="56" r:id="rId12"/>
+    <sheet name="CreditApp_NavigateFilter++" sheetId="55" r:id="rId13"/>
+    <sheet name="giftCardReport++" sheetId="54" r:id="rId14"/>
+    <sheet name="adminUserUpdate++" sheetId="52" r:id="rId15"/>
+    <sheet name="ICUpdateUser++" sheetId="51" r:id="rId16"/>
+    <sheet name="SapCustomer++" sheetId="50" r:id="rId17"/>
+    <sheet name="Suites" sheetId="22" r:id="rId18"/>
+    <sheet name="IC" sheetId="23" r:id="rId19"/>
+    <sheet name="validatePaymentOption++" sheetId="77" r:id="rId20"/>
     <sheet name="PayUPagePayment++" sheetId="31" r:id="rId21"/>
     <sheet name="CheckoutpaymentOption++" sheetId="32" r:id="rId22"/>
     <sheet name="deliveryPopulation++" sheetId="34" r:id="rId23"/>
@@ -61,11 +61,7 @@
     <sheet name="Sleepmasters" sheetId="29" r:id="rId51"/>
     <sheet name="HiFiCorp" sheetId="30" r:id="rId52"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">IC!$A$1:$Q$71</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -137,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="651">
   <si>
     <t>testSuitID</t>
   </si>
@@ -1737,6 +1733,9 @@
     <t>Sort_Products_By_Price_Low_To_High</t>
   </si>
   <si>
+    <t>Test_Case_Name</t>
+  </si>
+  <si>
     <t>Updating_customer_first_name_on_Magento</t>
   </si>
   <si>
@@ -2070,43 +2069,31 @@
     <t>9410084800087</t>
   </si>
   <si>
-    <t>HP 15 i3 8130U 4GB 1TB Black Notebook</t>
-  </si>
-  <si>
-    <t>Validate_Parallel_Login_to_IC</t>
-  </si>
-  <si>
-    <t>parrallel_ic_Login</t>
-  </si>
-  <si>
-    <t>Email_Chrome_User</t>
-  </si>
-  <si>
-    <t>Password_Chrome_User</t>
-  </si>
-  <si>
-    <t>FirstName_Chrome_User</t>
-  </si>
-  <si>
-    <t>Email_Firefox_User</t>
-  </si>
-  <si>
-    <t>Password_Firefox_User</t>
-  </si>
-  <si>
-    <t>FirstName_Firefox_User</t>
-  </si>
-  <si>
-    <t>RobertWalton@dayrep.com</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>DavidDHasting@armyspy.com</t>
-  </si>
-  <si>
-    <t>David</t>
+    <t>Different delivery options to display on checkout</t>
+  </si>
+  <si>
+    <t>verifyDeliveryOption</t>
+  </si>
+  <si>
+    <t>Different payment options to display on checkout</t>
+  </si>
+  <si>
+    <t>validatePaymentOption</t>
+  </si>
+  <si>
+    <t>Types_of_Payments</t>
+  </si>
+  <si>
+    <t>Cash Deposits</t>
+  </si>
+  <si>
+    <t>JBL Tune600 Black</t>
+  </si>
+  <si>
+    <t>jdg123auto@gmail.com</t>
+  </si>
+  <si>
+    <t>Password#123</t>
   </si>
 </sst>
 </file>
@@ -2208,7 +2195,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2242,12 +2229,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2296,7 +2277,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2637,17 +2618,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2656,7 +2629,37 @@
     <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="89">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3850,403 +3853,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06053B8-6DF3-44FB-9BCF-EBFA5CEA1EB4}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5" style="115" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" style="115" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="115" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="115" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" style="115" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="115" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" style="115" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="115" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" style="115" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="115"/>
+    <col min="1" max="1" width="5" style="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="85" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="90" t="s">
-        <v>644</v>
-      </c>
-      <c r="E1" s="90" t="s">
-        <v>645</v>
-      </c>
-      <c r="F1" s="90" t="s">
-        <v>646</v>
-      </c>
-      <c r="G1" s="90" t="s">
-        <v>647</v>
-      </c>
-      <c r="H1" s="90" t="s">
-        <v>648</v>
-      </c>
-      <c r="I1" s="90" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="117">
-        <v>71</v>
-      </c>
-      <c r="B2" s="117" t="s">
-        <v>642</v>
-      </c>
-      <c r="C2" s="117">
-        <v>1</v>
-      </c>
-      <c r="D2" s="145" t="s">
-        <v>650</v>
-      </c>
-      <c r="E2" s="145" t="s">
-        <v>429</v>
-      </c>
-      <c r="F2" s="117" t="s">
-        <v>651</v>
-      </c>
-      <c r="G2" s="146" t="s">
-        <v>652</v>
-      </c>
-      <c r="H2" s="145" t="s">
-        <v>429</v>
-      </c>
-      <c r="I2" s="115" t="s">
-        <v>653</v>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="84">
+        <v>52</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>542</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="84">
+        <v>53</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>541</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="57">
+        <v>54</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="83">
+        <v>55</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>620</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="57">
+        <v>56</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>622</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="83">
+        <v>70</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>635</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{2555918D-6EAD-4098-925A-331020C93D93}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{3699540D-500B-4EAF-A6AE-B133557F3029}"/>
-  </hyperlinks>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="88" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="87" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>351</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>352</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="48">
-        <v>46</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>526</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="48">
-        <v>47</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>424</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>359</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>360</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="60" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="59" priority="2"/>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0800-000000000000}">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0800-000001000000}">
-      <formula1>"ABSA,AFRICAN BANK,BIDVEST.CAPITEC,FNB,INVESTEC,NEDBANK,STANDARD BANK SA"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0800-000002000000}">
-      <formula1>"English,Afrikaans,Sesotho,Xhosa,Zulu"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>363</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>364</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="48">
-        <v>46</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>526</v>
-      </c>
-      <c r="C2" s="36">
-        <v>1</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="I2" s="36">
-        <v>2313</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>341</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="48">
-        <v>47</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>424</v>
-      </c>
-      <c r="C3" s="36">
-        <v>1</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="I3" s="36">
-        <v>2313</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>341</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>369</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="58" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="57" priority="2"/>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0900-000000000000}">
-      <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0900-000001000000}">
-          <x14:formula1>
-            <xm:f>'Preferred Store'!$A$2:$A$71</xm:f>
-          </x14:formula1>
-          <xm:sqref>K2:K1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" style="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="36"/>
+    <col min="8" max="8" width="18.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4329,13 +4057,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="56" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="55" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"Domestic Worker,Company Employed,Government Employed,Full-time Housewife,Self Employed - Company Owner,Self Employed - Informal Trader,Student,Unemployed,Pensioner/Retired,Contract Worker,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4344,39 +4072,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.453125" style="36" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" style="36" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="36"/>
-    <col min="15" max="15" width="23.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="36"/>
+    <col min="14" max="14" width="9.1796875" style="36"/>
+    <col min="15" max="15" width="23.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7265625" style="36" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7265625" style="36" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.1796875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -4585,31 +4313,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="54" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="53" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3" xr:uid="{00000000-0002-0000-0B00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3" xr:uid="{00000000-0002-0000-0A00-000002000000}">
       <formula1>"African,Asian,Coloured,White,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{00000000-0002-0000-0B00-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{00000000-0002-0000-0A00-000003000000}">
       <formula1>"Single,Married / Civil Partnership,Widowed,Divorced,Separated,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{00000000-0002-0000-0B00-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{00000000-0002-0000-0A00-000004000000}">
       <formula1>"ANC with Accrual,ANC without Accrual,In Community,Customary Union,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3" xr:uid="{00000000-0002-0000-0B00-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3" xr:uid="{00000000-0002-0000-0A00-000005000000}">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576" xr:uid="{00000000-0002-0000-0B00-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576" xr:uid="{00000000-0002-0000-0A00-000006000000}">
       <formula1>"0,1,2,3,4,5,6,7,8,9"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4618,23 +4346,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="36"/>
+    <col min="4" max="4" width="20.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4680,27 +4408,27 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="52" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="51" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.81640625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="35"/>
@@ -4737,35 +4465,35 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="50" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="49" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1796875" style="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="29"/>
+    <col min="10" max="16384" width="9.1796875" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4803,7 +4531,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C2" s="29">
         <v>1</v>
@@ -4820,7 +4548,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C3" s="29">
         <v>1</v>
@@ -4837,8 +4565,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4849,42 +4577,42 @@
       <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="11" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="11" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="20.26953125" style="11" customWidth="1"/>
+    <col min="15" max="15" width="31.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.453125" style="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="30" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.26953125" style="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="20" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.140625" style="11" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="11.5703125" style="11" customWidth="1"/>
-    <col min="31" max="16384" width="8.7109375" style="11"/>
+    <col min="27" max="27" width="23.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.1796875" style="11" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="11.54296875" style="11" customWidth="1"/>
+    <col min="31" max="16384" width="8.7265625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="30">
+    <row r="1" spans="1:28">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -5025,7 +4753,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C3" s="16">
         <v>1</v>
@@ -5125,7 +4853,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C5" s="16">
         <v>1</v>
@@ -5175,7 +4903,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C6" s="16">
         <v>1</v>
@@ -5225,7 +4953,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C7" s="16">
         <v>1</v>
@@ -5385,7 +5113,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="127" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C18" s="117">
         <v>1</v>
@@ -5396,7 +5124,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="127" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C19" s="117">
         <v>1</v>
@@ -5407,7 +5135,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="127" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C20" s="117">
         <v>1</v>
@@ -5418,7 +5146,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="127" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C21" s="117">
         <v>1</v>
@@ -5470,81 +5198,81 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="48" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="47" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="45" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B21">
-    <cfRule type="duplicateValues" dxfId="44" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A21">
-    <cfRule type="duplicateValues" dxfId="43" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="47"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10" xr:uid="{00000000-0002-0000-0F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7" xr:uid="{00000000-0002-0000-0F00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7" xr:uid="{00000000-0002-0000-0E00-000001000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
-    <hyperlink ref="D6:D7" r:id="rId2" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
-    <hyperlink ref="D2:D4" r:id="rId4" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-0F00-000003000000}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="D6:D7" r:id="rId2" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
+    <hyperlink ref="D2:D4" r:id="rId4" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.81640625" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.1796875" style="12" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" style="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21" style="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="25" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.453125" style="12" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="30" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.26953125" style="12" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20" style="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.7109375" style="12"/>
+    <col min="28" max="28" width="23.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.1796875" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.7265625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -5749,7 +5477,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C4" s="14">
         <v>1</v>
@@ -5800,7 +5528,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
@@ -5851,7 +5579,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C6" s="14">
         <v>1</v>
@@ -5902,7 +5630,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C7" s="14">
         <v>1</v>
@@ -6052,7 +5780,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="127" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C17" s="117">
         <v>1</v>
@@ -6063,7 +5791,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="127" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C18" s="117">
         <v>1</v>
@@ -6074,7 +5802,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="127" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C19" s="117">
         <v>1</v>
@@ -6085,7 +5813,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="127" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C20" s="117">
         <v>1</v>
@@ -6096,7 +5824,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="127" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C21" s="117">
         <v>1</v>
@@ -6148,25 +5876,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="42" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="41" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B21">
-    <cfRule type="duplicateValues" dxfId="38" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:A21">
-    <cfRule type="duplicateValues" dxfId="37" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="29"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576" xr:uid="{00000000-0002-0000-1000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6174,26 +5902,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H2" sqref="H2"/>
       <selection pane="topRight" activeCell="H2" sqref="H2"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6371,7 +6099,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C11" s="16">
         <v>1</v>
@@ -6405,7 +6133,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C13" s="16">
         <v>1</v>
@@ -6422,7 +6150,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C14" s="16">
         <v>1</v>
@@ -6439,7 +6167,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C15" s="16">
         <v>1</v>
@@ -6490,7 +6218,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C18" s="16">
         <v>1</v>
@@ -6507,7 +6235,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C19" s="16">
         <v>1</v>
@@ -6524,7 +6252,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C20" s="16">
         <v>1</v>
@@ -6541,7 +6269,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C21" s="16">
         <v>1</v>
@@ -6623,13 +6351,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1000-000000000000}">
       <formula1>"Guest Customer Creation, Customer Creation, Customer Update,Customer Creation Magento Admin, Customer Update Magento Admin"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6637,35 +6365,204 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q72"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H27" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:Q73"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="11" style="62" customWidth="1"/>
-    <col min="2" max="2" width="93.5703125" style="134" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.7109375" style="134" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="134" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="134" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.7109375" style="134" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" style="134" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" style="134" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" style="134" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.42578125" style="134" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.42578125" style="134" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="27.140625" style="134" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="31.42578125" style="134" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" style="134" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="134"/>
+    <col min="2" max="2" width="93.54296875" style="134" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" style="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.7265625" style="134" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="134" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" style="134" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.7265625" style="134" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.54296875" style="134" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.453125" style="134" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.7265625" style="134" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.453125" style="134" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.453125" style="134" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="27.1796875" style="134" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="31.453125" style="134" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" style="134" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1796875" style="134"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -6673,7 +6570,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="124" t="s">
-        <v>84</v>
+        <v>530</v>
       </c>
       <c r="C1" s="60" t="s">
         <v>223</v>
@@ -6721,7 +6618,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="30">
+    <row r="2" spans="1:17" ht="29">
       <c r="A2" s="141">
         <v>1</v>
       </c>
@@ -6738,7 +6635,7 @@
         <v>507</v>
       </c>
       <c r="F2" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="129" t="s">
         <v>108</v>
@@ -6761,8 +6658,8 @@
       <c r="O2" s="127"/>
       <c r="P2" s="127"/>
     </row>
-    <row r="3" spans="1:17" ht="30">
-      <c r="A3" s="142">
+    <row r="3" spans="1:17" ht="29">
+      <c r="A3" s="141">
         <v>2</v>
       </c>
       <c r="B3" s="127" t="s">
@@ -6778,7 +6675,7 @@
         <v>507</v>
       </c>
       <c r="F3" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="129" t="s">
         <v>108</v>
@@ -6802,7 +6699,7 @@
       <c r="P3" s="127"/>
       <c r="Q3" s="127"/>
     </row>
-    <row r="4" spans="1:17" ht="30">
+    <row r="4" spans="1:17" ht="29">
       <c r="A4" s="141">
         <v>3</v>
       </c>
@@ -6819,7 +6716,7 @@
         <v>507</v>
       </c>
       <c r="F4" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="129" t="s">
         <v>108</v>
@@ -6843,7 +6740,7 @@
       <c r="P4" s="127"/>
       <c r="Q4" s="127"/>
     </row>
-    <row r="5" spans="1:17" ht="30">
+    <row r="5" spans="1:17" ht="29">
       <c r="A5" s="141">
         <v>4</v>
       </c>
@@ -6860,7 +6757,7 @@
         <v>507</v>
       </c>
       <c r="F5" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="129" t="s">
         <v>108</v>
@@ -6884,7 +6781,7 @@
       <c r="P5" s="127"/>
       <c r="Q5" s="127"/>
     </row>
-    <row r="6" spans="1:17" ht="30">
+    <row r="6" spans="1:17" ht="29">
       <c r="A6" s="141">
         <v>5</v>
       </c>
@@ -6901,7 +6798,7 @@
         <v>507</v>
       </c>
       <c r="F6" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="129" t="s">
         <v>108</v>
@@ -6925,7 +6822,7 @@
       <c r="P6" s="127"/>
       <c r="Q6" s="127"/>
     </row>
-    <row r="7" spans="1:17" ht="30">
+    <row r="7" spans="1:17" ht="29">
       <c r="A7" s="61">
         <v>6</v>
       </c>
@@ -6964,7 +6861,7 @@
       <c r="P7" s="127"/>
       <c r="Q7" s="127"/>
     </row>
-    <row r="8" spans="1:17" ht="30">
+    <row r="8" spans="1:17" ht="29">
       <c r="A8" s="61">
         <v>7</v>
       </c>
@@ -7003,7 +6900,7 @@
       <c r="P8" s="127"/>
       <c r="Q8" s="127"/>
     </row>
-    <row r="9" spans="1:17" ht="30">
+    <row r="9" spans="1:17" ht="29">
       <c r="A9" s="61">
         <v>8</v>
       </c>
@@ -7042,7 +6939,7 @@
       <c r="P9" s="127"/>
       <c r="Q9" s="127"/>
     </row>
-    <row r="10" spans="1:17" ht="30">
+    <row r="10" spans="1:17" ht="29">
       <c r="A10" s="141">
         <v>9</v>
       </c>
@@ -7059,7 +6956,7 @@
         <v>199</v>
       </c>
       <c r="F10" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="129" t="s">
         <v>86</v>
@@ -7081,12 +6978,12 @@
       <c r="P10" s="127"/>
       <c r="Q10" s="127"/>
     </row>
-    <row r="11" spans="1:17" ht="30">
+    <row r="11" spans="1:17" ht="29">
       <c r="A11" s="141">
         <v>10</v>
       </c>
       <c r="B11" s="127" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C11" s="70" t="s">
         <v>264</v>
@@ -7098,7 +6995,7 @@
         <v>199</v>
       </c>
       <c r="F11" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="129" t="s">
         <v>86</v>
@@ -7120,12 +7017,12 @@
       <c r="P11" s="127"/>
       <c r="Q11" s="127"/>
     </row>
-    <row r="12" spans="1:17" ht="30">
+    <row r="12" spans="1:17" ht="29">
       <c r="A12" s="141">
         <v>11</v>
       </c>
       <c r="B12" s="127" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C12" s="70" t="s">
         <v>264</v>
@@ -7137,7 +7034,7 @@
         <v>199</v>
       </c>
       <c r="F12" s="127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="129" t="s">
         <v>86</v>
@@ -7159,18 +7056,18 @@
       <c r="P12" s="127"/>
       <c r="Q12" s="127"/>
     </row>
-    <row r="13" spans="1:17" ht="30">
+    <row r="13" spans="1:17" ht="29">
       <c r="A13" s="61">
         <v>12</v>
       </c>
       <c r="B13" s="127" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C13" s="70" t="s">
         <v>264</v>
       </c>
       <c r="D13" s="127" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E13" s="128" t="s">
         <v>199</v>
@@ -7198,18 +7095,18 @@
       <c r="P13" s="127"/>
       <c r="Q13" s="127"/>
     </row>
-    <row r="14" spans="1:17" ht="30">
+    <row r="14" spans="1:17" ht="29">
       <c r="A14" s="61">
         <v>13</v>
       </c>
       <c r="B14" s="127" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C14" s="70" t="s">
         <v>264</v>
       </c>
       <c r="D14" s="127" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E14" s="128" t="s">
         <v>199</v>
@@ -7237,18 +7134,18 @@
       <c r="P14" s="127"/>
       <c r="Q14" s="127"/>
     </row>
-    <row r="15" spans="1:17" ht="30">
+    <row r="15" spans="1:17" ht="29">
       <c r="A15" s="61">
         <v>14</v>
       </c>
       <c r="B15" s="127" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C15" s="70" t="s">
         <v>264</v>
       </c>
       <c r="D15" s="127" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E15" s="128" t="s">
         <v>199</v>
@@ -7276,8 +7173,8 @@
       <c r="P15" s="127"/>
       <c r="Q15" s="127"/>
     </row>
-    <row r="16" spans="1:17" ht="30">
-      <c r="A16" s="142">
+    <row r="16" spans="1:17" ht="29">
+      <c r="A16" s="61">
         <v>15</v>
       </c>
       <c r="B16" s="127" t="s">
@@ -7287,7 +7184,7 @@
         <v>265</v>
       </c>
       <c r="D16" s="127" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E16" s="128" t="s">
         <v>199</v>
@@ -7319,7 +7216,7 @@
       <c r="P16" s="127"/>
       <c r="Q16" s="127"/>
     </row>
-    <row r="17" spans="1:17" ht="30">
+    <row r="17" spans="1:17" ht="29">
       <c r="A17" s="61">
         <v>16</v>
       </c>
@@ -7330,7 +7227,7 @@
         <v>265</v>
       </c>
       <c r="D17" s="127" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E17" s="128" t="s">
         <v>199</v>
@@ -7362,18 +7259,18 @@
       <c r="P17" s="127"/>
       <c r="Q17" s="127"/>
     </row>
-    <row r="18" spans="1:17" ht="30">
+    <row r="18" spans="1:17" ht="29">
       <c r="A18" s="61">
         <v>17</v>
       </c>
       <c r="B18" s="127" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C18" s="70" t="s">
         <v>265</v>
       </c>
       <c r="D18" s="127" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E18" s="128" t="s">
         <v>199</v>
@@ -7405,18 +7302,18 @@
       <c r="P18" s="127"/>
       <c r="Q18" s="127"/>
     </row>
-    <row r="19" spans="1:17" ht="30">
+    <row r="19" spans="1:17" ht="29">
       <c r="A19" s="61">
         <v>18</v>
       </c>
       <c r="B19" s="127" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C19" s="70" t="s">
         <v>265</v>
       </c>
       <c r="D19" s="127" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E19" s="128" t="s">
         <v>199</v>
@@ -7448,18 +7345,18 @@
       <c r="P19" s="127"/>
       <c r="Q19" s="127"/>
     </row>
-    <row r="20" spans="1:17" ht="30">
+    <row r="20" spans="1:17" ht="29">
       <c r="A20" s="61">
         <v>19</v>
       </c>
       <c r="B20" s="127" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C20" s="70" t="s">
         <v>265</v>
       </c>
       <c r="D20" s="127" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E20" s="128" t="s">
         <v>199</v>
@@ -7491,18 +7388,18 @@
       <c r="P20" s="127"/>
       <c r="Q20" s="127"/>
     </row>
-    <row r="21" spans="1:17" ht="30">
+    <row r="21" spans="1:17" ht="29">
       <c r="A21" s="61">
         <v>20</v>
       </c>
       <c r="B21" s="127" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C21" s="70" t="s">
         <v>265</v>
       </c>
       <c r="D21" s="127" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E21" s="128" t="s">
         <v>199</v>
@@ -7539,7 +7436,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="127" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C22" s="70" t="s">
         <v>269</v>
@@ -7569,7 +7466,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="127" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C23" s="70" t="s">
         <v>269</v>
@@ -7599,7 +7496,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="127" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C24" s="70" t="s">
         <v>269</v>
@@ -7629,7 +7526,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="127" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C25" s="70" t="s">
         <v>269</v>
@@ -7659,7 +7556,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="127" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C26" s="70" t="s">
         <v>269</v>
@@ -7685,17 +7582,17 @@
       <c r="P26" s="127"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="142">
+      <c r="A27" s="61">
         <v>26</v>
       </c>
       <c r="B27" s="127" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C27" s="71" t="s">
         <v>266</v>
       </c>
       <c r="D27" s="127" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E27" s="127"/>
       <c r="F27" s="127" t="s">
@@ -7735,13 +7632,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="127" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C28" s="71" t="s">
         <v>266</v>
       </c>
       <c r="D28" s="127" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E28" s="128"/>
       <c r="F28" s="127" t="s">
@@ -7781,13 +7678,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="127" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C29" s="71" t="s">
         <v>266</v>
       </c>
       <c r="D29" s="127" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E29" s="128"/>
       <c r="F29" s="127" t="s">
@@ -7827,13 +7724,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="127" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C30" s="71" t="s">
         <v>266</v>
       </c>
       <c r="D30" s="127" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E30" s="128"/>
       <c r="F30" s="127" t="s">
@@ -7873,13 +7770,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="127" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C31" s="71" t="s">
         <v>266</v>
       </c>
       <c r="D31" s="127" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E31" s="128"/>
       <c r="F31" s="127" t="s">
@@ -7913,7 +7810,7 @@
       <c r="P31" s="127"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="142">
+      <c r="A32" s="61">
         <v>31</v>
       </c>
       <c r="B32" s="127" t="s">
@@ -7966,13 +7863,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="127" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C33" s="70" t="s">
         <v>266</v>
       </c>
       <c r="D33" s="127" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E33" s="128" t="s">
         <v>199</v>
@@ -8012,13 +7909,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="127" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C34" s="70" t="s">
         <v>266</v>
       </c>
       <c r="D34" s="127" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E34" s="128" t="s">
         <v>199</v>
@@ -8061,13 +7958,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="127" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C35" s="70" t="s">
         <v>278</v>
       </c>
       <c r="D35" s="127" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E35" s="128" t="s">
         <v>199</v>
@@ -8105,13 +8002,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="127" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C36" s="70" t="s">
         <v>277</v>
       </c>
       <c r="D36" s="127" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E36" s="128" t="s">
         <v>199</v>
@@ -8145,13 +8042,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="127" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C37" s="70" t="s">
         <v>277</v>
       </c>
       <c r="D37" s="127" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E37" s="128" t="s">
         <v>199</v>
@@ -8187,13 +8084,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="127" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C38" s="70" t="s">
         <v>279</v>
       </c>
       <c r="D38" s="127" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E38" s="128" t="s">
         <v>199</v>
@@ -8221,13 +8118,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="127" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C39" s="70" t="s">
         <v>279</v>
       </c>
       <c r="D39" s="127" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E39" s="128" t="s">
         <v>199</v>
@@ -8398,7 +8295,7 @@
       </c>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="143">
+      <c r="A43" s="63">
         <v>42</v>
       </c>
       <c r="B43" s="133" t="s">
@@ -8462,7 +8359,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="133" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C45" s="70"/>
       <c r="D45" s="133" t="s">
@@ -8489,7 +8386,7 @@
       <c r="Q45" s="133"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="143">
+      <c r="A46" s="63">
         <v>45</v>
       </c>
       <c r="B46" s="136" t="s">
@@ -8605,11 +8502,11 @@
         <v>48</v>
       </c>
       <c r="B49" s="138" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C49" s="70"/>
       <c r="D49" s="138" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E49" s="128"/>
       <c r="F49" s="127" t="s">
@@ -8701,11 +8598,11 @@
         <v>52</v>
       </c>
       <c r="B53" s="133" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C53" s="64"/>
       <c r="D53" s="133" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E53" s="133" t="s">
         <v>139</v>
@@ -8728,11 +8625,11 @@
         <v>53</v>
       </c>
       <c r="B54" s="133" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C54" s="64"/>
       <c r="D54" s="133" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E54" s="133" t="s">
         <v>139</v>
@@ -8758,11 +8655,11 @@
         <v>54</v>
       </c>
       <c r="B55" s="67" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C55" s="69"/>
       <c r="D55" s="67" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="127" t="s">
@@ -8781,7 +8678,7 @@
         <v>31</v>
       </c>
       <c r="K55" s="58" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L55" s="57"/>
       <c r="M55" s="57"/>
@@ -8794,11 +8691,11 @@
         <v>55</v>
       </c>
       <c r="B56" s="67" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C56" s="69"/>
       <c r="D56" s="67" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E56" s="57"/>
       <c r="F56" s="127" t="s">
@@ -8827,11 +8724,11 @@
         <v>56</v>
       </c>
       <c r="B57" s="67" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C57" s="69"/>
       <c r="D57" s="67" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E57" s="57"/>
       <c r="F57" s="127" t="s">
@@ -8862,13 +8759,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="67" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C58" s="69">
         <v>265</v>
       </c>
       <c r="D58" s="67" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E58" s="68" t="s">
         <v>507</v>
@@ -8880,7 +8777,7 @@
         <v>157</v>
       </c>
       <c r="H58" s="58" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I58" s="57"/>
       <c r="J58" s="57"/>
@@ -8895,13 +8792,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="67" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C59" s="69">
         <v>271</v>
       </c>
       <c r="D59" s="67" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E59" s="68" t="s">
         <v>507</v>
@@ -8910,7 +8807,7 @@
         <v>9</v>
       </c>
       <c r="G59" s="58" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H59" s="58" t="s">
         <v>31</v>
@@ -8928,13 +8825,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="67" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C60" s="69">
         <v>266</v>
       </c>
       <c r="D60" s="67" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E60" s="68" t="s">
         <v>507</v>
@@ -8943,7 +8840,7 @@
         <v>9</v>
       </c>
       <c r="G60" s="58" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H60" s="58" t="s">
         <v>31</v>
@@ -8961,13 +8858,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="67" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C61" s="69">
         <v>270</v>
       </c>
       <c r="D61" s="67" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E61" s="68" t="s">
         <v>507</v>
@@ -8979,7 +8876,7 @@
         <v>31</v>
       </c>
       <c r="H61" s="67" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="I61" s="57"/>
       <c r="J61" s="57"/>
@@ -8994,11 +8891,11 @@
         <v>61</v>
       </c>
       <c r="B62" s="67" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C62" s="69"/>
       <c r="D62" s="67" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E62" s="68" t="s">
         <v>507</v>
@@ -9010,7 +8907,7 @@
         <v>31</v>
       </c>
       <c r="H62" s="67" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="I62" s="57"/>
       <c r="J62" s="57"/>
@@ -9025,13 +8922,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="72" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C63" s="69">
         <v>305</v>
       </c>
       <c r="D63" s="67" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E63" s="68" t="s">
         <v>199</v>
@@ -9040,7 +8937,7 @@
         <v>9</v>
       </c>
       <c r="G63" s="58" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H63" s="57"/>
       <c r="I63" s="57"/>
@@ -9056,13 +8953,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="72" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C64" s="69">
         <v>305</v>
       </c>
       <c r="D64" s="67" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E64" s="68" t="s">
         <v>199</v>
@@ -9071,7 +8968,7 @@
         <v>9</v>
       </c>
       <c r="G64" s="58" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H64" s="57"/>
       <c r="I64" s="57"/>
@@ -9087,13 +8984,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="73" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C65" s="69">
         <v>309</v>
       </c>
       <c r="D65" s="67" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E65" s="68" t="s">
         <v>199</v>
@@ -9102,7 +8999,7 @@
         <v>9</v>
       </c>
       <c r="G65" s="58" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H65" s="57"/>
       <c r="I65" s="57"/>
@@ -9115,13 +9012,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="67" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C66" s="69">
         <v>312</v>
       </c>
       <c r="D66" s="67" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E66" s="67" t="s">
         <v>199</v>
@@ -9130,7 +9027,7 @@
         <v>9</v>
       </c>
       <c r="G66" s="57" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H66" s="57"/>
       <c r="I66" s="57"/>
@@ -9143,13 +9040,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="67" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C67" s="69">
         <v>315</v>
       </c>
       <c r="D67" s="67" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E67" s="67" t="s">
         <v>199</v>
@@ -9158,7 +9055,7 @@
         <v>9</v>
       </c>
       <c r="G67" s="68" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H67" s="57"/>
       <c r="I67" s="57"/>
@@ -9171,13 +9068,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="67" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C68" s="69">
         <v>318</v>
       </c>
       <c r="D68" s="67" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E68" s="67" t="s">
         <v>199</v>
@@ -9186,10 +9083,10 @@
         <v>9</v>
       </c>
       <c r="G68" s="57" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H68" s="67" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="I68" s="57"/>
       <c r="J68" s="57"/>
@@ -9201,13 +9098,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="67" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C69" s="69">
         <v>331</v>
       </c>
       <c r="D69" s="126" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E69" s="67" t="s">
         <v>199</v>
@@ -9229,13 +9126,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="67" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C70" s="69">
         <v>335</v>
       </c>
       <c r="D70" s="67" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E70" s="57"/>
       <c r="F70" s="127" t="s">
@@ -9245,7 +9142,7 @@
         <v>31</v>
       </c>
       <c r="H70" s="57" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="I70" s="57"/>
       <c r="J70" s="57"/>
@@ -9257,16 +9154,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="67" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C71" s="69">
         <v>265</v>
       </c>
       <c r="D71" s="67" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E71" s="68" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F71" s="127" t="s">
         <v>9</v>
@@ -9284,452 +9181,534 @@
         <v>31</v>
       </c>
       <c r="K71" s="58" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L71" s="58" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="62">
-        <v>71</v>
+      <c r="A72" s="134">
+        <v>75</v>
       </c>
       <c r="B72" s="134" t="s">
         <v>642</v>
       </c>
-      <c r="F72" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="144" t="s">
+      <c r="C72" s="134">
+        <v>345</v>
+      </c>
+      <c r="D72" s="134" t="s">
+        <v>642</v>
+      </c>
+      <c r="E72" s="134" t="s">
+        <v>199</v>
+      </c>
+      <c r="F72" s="134" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="142" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" s="134" t="s">
         <v>643</v>
       </c>
     </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="134">
+        <v>76</v>
+      </c>
+      <c r="B73" s="134" t="s">
+        <v>644</v>
+      </c>
+      <c r="C73" s="134">
+        <v>348</v>
+      </c>
+      <c r="D73" s="134" t="s">
+        <v>644</v>
+      </c>
+      <c r="E73" s="134" t="s">
+        <v>199</v>
+      </c>
+      <c r="F73" s="134" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="134" t="s">
+        <v>157</v>
+      </c>
+      <c r="H73" s="134" t="s">
+        <v>582</v>
+      </c>
+      <c r="I73" s="134" t="s">
+        <v>31</v>
+      </c>
+      <c r="J73" s="134" t="s">
+        <v>201</v>
+      </c>
+      <c r="K73" s="134" t="s">
+        <v>645</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q71" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="B53:B54">
-    <cfRule type="duplicateValues" dxfId="85" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:B49 B1:B31 B55:B71 B74:B1048576">
+    <cfRule type="duplicateValues" dxfId="44" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="84" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="83" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B52">
-    <cfRule type="duplicateValues" dxfId="82" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="duplicateValues" dxfId="81" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53:A54 A2:A31 A33:A49">
-    <cfRule type="duplicateValues" dxfId="80" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B49 B1:B31 B55:B71 B73:B1048576">
-    <cfRule type="duplicateValues" dxfId="79" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="duplicateValues" dxfId="78" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72">
+    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J8:J9" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="J7" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G10:G14" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H10" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="H11:H14" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G15" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H15" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="G16" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H16" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I16" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G17" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G18" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G19" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G20" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="H17" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H18" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H19" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H20" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="I17" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I18" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="I19" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I20" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="H21" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="I21" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G27" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="H27" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="L27" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="N27" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G24" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G25" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="G22" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G23" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G26" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="J10:J15" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="L17:L21" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="L16" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="I27" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J27" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="M27" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="K27" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="O27" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G28" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="G30" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="H28" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="H30" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="L28" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="L30" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="N28" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="N30" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="I28" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="I30" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="J28" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="J30" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="M28" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="M30" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="K28" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="K30" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="O28" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="O30" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="H31" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="K31" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="M31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="I31" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="L31" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="J31" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="N31" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="G29" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="H29" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="L29" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="N29" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="I29" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="J29" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="M29" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="K29" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="O29" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="G32" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="H32" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="L32" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="I32" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="J32" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="M32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="K32" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="P32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="Q32" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="G34" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="H37" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="H33" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="I33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="J33" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="K33" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="L33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="M33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="N33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="G33" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="H34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="J34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="K34" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="L34" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="M34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="N34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="O34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="M35" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="H47" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="H48" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="I47" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="I48" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="J47" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="J48" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="G47" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="G48" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="G49" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="I40" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="G40" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="H41" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="J40" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="K40" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="L40" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="M40" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="N40" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="Q40" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="G41:G42" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="I41:I42" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="H40:H42" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="J40:J42" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="K40:K42" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="L40:L42" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="M40:M42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="N40:N42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="Q40:Q42" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="H54" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="M47" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="N47" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="O47" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="N32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="O32" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="P40:P42" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="L48" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="L47" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="K48" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="K47" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="G39" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="G38" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="G53:G54" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="H53" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="I54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="I53" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="J54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="G35" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="H35" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="I35" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="J35" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="K35" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="L35" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="G36" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="H36" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="I36" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="J36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="K37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="I37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="K36" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="L37" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="H38" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="H39" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="G50" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="G50:G52" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="K2" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="J2" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="K3" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="K4" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="K5" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="J3" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="J4" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="J5" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="K6" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="J6" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="K16" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="K17:K21" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="J16" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="J17:J21" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="I2" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="I3:I6" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="J55" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="I55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="G55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="H55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="K55" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="J56" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="J57" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="K57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="H59" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="H60" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="G59:G60" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="G61" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="G62" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="G69" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="J71" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="G71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="H71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="I71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="K71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="L71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="G56:G57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="H56:H57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="I56:I57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="G63" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="G64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="G70" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="G72" location="'parrallel_ic_Login++'!A1" display="parrallel_ic_Login" xr:uid="{B89C2A0A-9FB0-4B21-BC21-787C9AE478FE}"/>
+    <hyperlink ref="H3" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
+    <hyperlink ref="G3" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
+    <hyperlink ref="H4" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000002000000}"/>
+    <hyperlink ref="G4" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-1200-000003000000}"/>
+    <hyperlink ref="H5" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000004000000}"/>
+    <hyperlink ref="G5" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-1200-000005000000}"/>
+    <hyperlink ref="H6" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000006000000}"/>
+    <hyperlink ref="G6" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-1200-000007000000}"/>
+    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000008000000}"/>
+    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000009000000}"/>
+    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-1200-00000A000000}"/>
+    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-1200-00000B000000}"/>
+    <hyperlink ref="J8:J9" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-00000C000000}"/>
+    <hyperlink ref="J7" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-00000D000000}"/>
+    <hyperlink ref="G10:G14" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-00000E000000}"/>
+    <hyperlink ref="H10" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-1200-00000F000000}"/>
+    <hyperlink ref="H11:H14" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-1200-000010000000}"/>
+    <hyperlink ref="G15" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000011000000}"/>
+    <hyperlink ref="H15" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-1200-000012000000}"/>
+    <hyperlink ref="G16" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-000013000000}"/>
+    <hyperlink ref="H16" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-1200-000014000000}"/>
+    <hyperlink ref="I16" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000015000000}"/>
+    <hyperlink ref="G17" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-000016000000}"/>
+    <hyperlink ref="G18" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-000017000000}"/>
+    <hyperlink ref="G19" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-000018000000}"/>
+    <hyperlink ref="G20" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-000019000000}"/>
+    <hyperlink ref="H17" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-1200-00001A000000}"/>
+    <hyperlink ref="H18" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-1200-00001B000000}"/>
+    <hyperlink ref="H19" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-1200-00001C000000}"/>
+    <hyperlink ref="H20" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-1200-00001D000000}"/>
+    <hyperlink ref="I17" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-00001E000000}"/>
+    <hyperlink ref="I18" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-00001F000000}"/>
+    <hyperlink ref="I19" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000020000000}"/>
+    <hyperlink ref="I20" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000021000000}"/>
+    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-000022000000}"/>
+    <hyperlink ref="H21" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-1200-000023000000}"/>
+    <hyperlink ref="I21" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000024000000}"/>
+    <hyperlink ref="G27" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-000025000000}"/>
+    <hyperlink ref="H27" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-1200-000026000000}"/>
+    <hyperlink ref="L27" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000027000000}"/>
+    <hyperlink ref="N27" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-1200-000028000000}"/>
+    <hyperlink ref="G24" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-1200-000029000000}"/>
+    <hyperlink ref="G25" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-1200-00002A000000}"/>
+    <hyperlink ref="G22" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-1200-00002B000000}"/>
+    <hyperlink ref="G23" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-1200-00002C000000}"/>
+    <hyperlink ref="G26" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-1200-00002D000000}"/>
+    <hyperlink ref="J10:J15" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-00002E000000}"/>
+    <hyperlink ref="L17:L21" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-00002F000000}"/>
+    <hyperlink ref="L16" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-000030000000}"/>
+    <hyperlink ref="I27" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-000031000000}"/>
+    <hyperlink ref="J27" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-1200-000032000000}"/>
+    <hyperlink ref="M27" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-000033000000}"/>
+    <hyperlink ref="K27" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-1200-000034000000}"/>
+    <hyperlink ref="O27" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-1200-000035000000}"/>
+    <hyperlink ref="G28" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-000036000000}"/>
+    <hyperlink ref="G30" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-000037000000}"/>
+    <hyperlink ref="H28" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-1200-000038000000}"/>
+    <hyperlink ref="H30" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-1200-000039000000}"/>
+    <hyperlink ref="L28" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-00003A000000}"/>
+    <hyperlink ref="L30" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-00003B000000}"/>
+    <hyperlink ref="N28" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-1200-00003C000000}"/>
+    <hyperlink ref="N30" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-1200-00003D000000}"/>
+    <hyperlink ref="I28" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-00003E000000}"/>
+    <hyperlink ref="I30" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-00003F000000}"/>
+    <hyperlink ref="J28" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-1200-000040000000}"/>
+    <hyperlink ref="J30" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-1200-000041000000}"/>
+    <hyperlink ref="M28" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-000042000000}"/>
+    <hyperlink ref="M30" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-000043000000}"/>
+    <hyperlink ref="K28" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-1200-000044000000}"/>
+    <hyperlink ref="K30" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-1200-000045000000}"/>
+    <hyperlink ref="O28" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-1200-000046000000}"/>
+    <hyperlink ref="O30" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-1200-000047000000}"/>
+    <hyperlink ref="G31" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-000048000000}"/>
+    <hyperlink ref="H31" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-1200-000049000000}"/>
+    <hyperlink ref="K31" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-00004A000000}"/>
+    <hyperlink ref="M31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-1200-00004B000000}"/>
+    <hyperlink ref="I31" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-00004C000000}"/>
+    <hyperlink ref="L31" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-00004D000000}"/>
+    <hyperlink ref="J31" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-1200-00004E000000}"/>
+    <hyperlink ref="N31" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-1200-00004F000000}"/>
+    <hyperlink ref="G29" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-000050000000}"/>
+    <hyperlink ref="H29" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-1200-000051000000}"/>
+    <hyperlink ref="L29" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000052000000}"/>
+    <hyperlink ref="N29" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-1200-000053000000}"/>
+    <hyperlink ref="I29" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-000054000000}"/>
+    <hyperlink ref="J29" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-1200-000055000000}"/>
+    <hyperlink ref="M29" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-000056000000}"/>
+    <hyperlink ref="K29" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-1200-000057000000}"/>
+    <hyperlink ref="O29" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-1200-000058000000}"/>
+    <hyperlink ref="G32" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-000059000000}"/>
+    <hyperlink ref="H32" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-1200-00005A000000}"/>
+    <hyperlink ref="L32" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-00005B000000}"/>
+    <hyperlink ref="I32" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-00005C000000}"/>
+    <hyperlink ref="J32" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-1200-00005D000000}"/>
+    <hyperlink ref="M32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-00005E000000}"/>
+    <hyperlink ref="K32" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-1200-00005F000000}"/>
+    <hyperlink ref="P32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-1200-000060000000}"/>
+    <hyperlink ref="Q32" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-000061000000}"/>
+    <hyperlink ref="G34" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-000062000000}"/>
+    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-000063000000}"/>
+    <hyperlink ref="H37" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-000064000000}"/>
+    <hyperlink ref="H33" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-1200-000065000000}"/>
+    <hyperlink ref="I33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-000066000000}"/>
+    <hyperlink ref="J33" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-1200-000067000000}"/>
+    <hyperlink ref="K33" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000068000000}"/>
+    <hyperlink ref="L33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-000069000000}"/>
+    <hyperlink ref="M33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-1200-00006A000000}"/>
+    <hyperlink ref="N33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-1200-00006B000000}"/>
+    <hyperlink ref="G33" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-1200-00006C000000}"/>
+    <hyperlink ref="H34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-1200-00006D000000}"/>
+    <hyperlink ref="J34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-00006E000000}"/>
+    <hyperlink ref="K34" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-1200-00006F000000}"/>
+    <hyperlink ref="L34" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000070000000}"/>
+    <hyperlink ref="M34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-000071000000}"/>
+    <hyperlink ref="N34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-1200-000072000000}"/>
+    <hyperlink ref="O34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-1200-000073000000}"/>
+    <hyperlink ref="M35" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-1200-000074000000}"/>
+    <hyperlink ref="H47" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-1200-000075000000}"/>
+    <hyperlink ref="H48" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-1200-000076000000}"/>
+    <hyperlink ref="I47" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-1200-000077000000}"/>
+    <hyperlink ref="I48" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-1200-000078000000}"/>
+    <hyperlink ref="J47" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-1200-000079000000}"/>
+    <hyperlink ref="J48" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-1200-00007A000000}"/>
+    <hyperlink ref="G47" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-00007B000000}"/>
+    <hyperlink ref="G48" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-00007C000000}"/>
+    <hyperlink ref="G49" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID" xr:uid="{00000000-0004-0000-1200-00007D000000}"/>
+    <hyperlink ref="I40" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-1200-00007E000000}"/>
+    <hyperlink ref="G40" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-00007F000000}"/>
+    <hyperlink ref="H41" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-000080000000}"/>
+    <hyperlink ref="J40" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-000081000000}"/>
+    <hyperlink ref="K40" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-1200-000082000000}"/>
+    <hyperlink ref="L40" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000083000000}"/>
+    <hyperlink ref="M40" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-000084000000}"/>
+    <hyperlink ref="N40" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-1200-000085000000}"/>
+    <hyperlink ref="Q40" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-000086000000}"/>
+    <hyperlink ref="G41:G42" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-000087000000}"/>
+    <hyperlink ref="I41:I42" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-1200-000088000000}"/>
+    <hyperlink ref="H40:H42" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-000089000000}"/>
+    <hyperlink ref="J40:J42" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-00008A000000}"/>
+    <hyperlink ref="K40:K42" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-1200-00008B000000}"/>
+    <hyperlink ref="L40:L42" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-00008C000000}"/>
+    <hyperlink ref="M40:M42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-00008D000000}"/>
+    <hyperlink ref="N40:N42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-1200-00008E000000}"/>
+    <hyperlink ref="Q40:Q42" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-00008F000000}"/>
+    <hyperlink ref="H54" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-000090000000}"/>
+    <hyperlink ref="M47" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-000091000000}"/>
+    <hyperlink ref="N47" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter" xr:uid="{00000000-0004-0000-1200-000092000000}"/>
+    <hyperlink ref="O47" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification" xr:uid="{00000000-0004-0000-1200-000093000000}"/>
+    <hyperlink ref="N32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-1200-000094000000}"/>
+    <hyperlink ref="O32" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-1200-000095000000}"/>
+    <hyperlink ref="P40:P42" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-1200-000096000000}"/>
+    <hyperlink ref="L48" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-1200-000097000000}"/>
+    <hyperlink ref="L47" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-1200-000098000000}"/>
+    <hyperlink ref="K48" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-1200-000099000000}"/>
+    <hyperlink ref="K47" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-1200-00009A000000}"/>
+    <hyperlink ref="G39" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-00009B000000}"/>
+    <hyperlink ref="G38" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-00009C000000}"/>
+    <hyperlink ref="G53:G54" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-1200-00009D000000}"/>
+    <hyperlink ref="H53" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-1200-00009E000000}"/>
+    <hyperlink ref="I54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-1200-00009F000000}"/>
+    <hyperlink ref="I53" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-1200-0000A0000000}"/>
+    <hyperlink ref="J54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-1200-0000A1000000}"/>
+    <hyperlink ref="G35" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-1200-0000A2000000}"/>
+    <hyperlink ref="H35" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-0000A3000000}"/>
+    <hyperlink ref="I35" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-1200-0000A4000000}"/>
+    <hyperlink ref="J35" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-0000A5000000}"/>
+    <hyperlink ref="K35" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-1200-0000A6000000}"/>
+    <hyperlink ref="L35" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-1200-0000A7000000}"/>
+    <hyperlink ref="G36" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-0000A8000000}"/>
+    <hyperlink ref="H36" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-1200-0000A9000000}"/>
+    <hyperlink ref="I36" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-1200-0000AA000000}"/>
+    <hyperlink ref="J36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-0000AB000000}"/>
+    <hyperlink ref="K37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-1200-0000AC000000}"/>
+    <hyperlink ref="I37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-1200-0000AD000000}"/>
+    <hyperlink ref="K36" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-1200-0000AE000000}"/>
+    <hyperlink ref="L37" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-1200-0000AF000000}"/>
+    <hyperlink ref="H38" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-1200-0000B0000000}"/>
+    <hyperlink ref="H39" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-1200-0000B1000000}"/>
+    <hyperlink ref="G50" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-1200-0000B2000000}"/>
+    <hyperlink ref="G50:G52" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-1200-0000B3000000}"/>
+    <hyperlink ref="H2" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-1200-0000B4000000}"/>
+    <hyperlink ref="K2" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-0000B5000000}"/>
+    <hyperlink ref="G2" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-1200-0000B6000000}"/>
+    <hyperlink ref="J2" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-1200-0000B7000000}"/>
+    <hyperlink ref="K3" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-0000B8000000}"/>
+    <hyperlink ref="K4" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-0000B9000000}"/>
+    <hyperlink ref="K5" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-0000BA000000}"/>
+    <hyperlink ref="J3" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-1200-0000BB000000}"/>
+    <hyperlink ref="J4" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-1200-0000BC000000}"/>
+    <hyperlink ref="J5" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-1200-0000BD000000}"/>
+    <hyperlink ref="K6" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-1200-0000BE000000}"/>
+    <hyperlink ref="J6" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-1200-0000BF000000}"/>
+    <hyperlink ref="K16" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-1200-0000C0000000}"/>
+    <hyperlink ref="K17:K21" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-1200-0000C1000000}"/>
+    <hyperlink ref="J16" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-1200-0000C2000000}"/>
+    <hyperlink ref="J17:J21" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-1200-0000C3000000}"/>
+    <hyperlink ref="I2" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-1200-0000C4000000}"/>
+    <hyperlink ref="I3:I6" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-1200-0000C5000000}"/>
+    <hyperlink ref="J55" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-0000C6000000}"/>
+    <hyperlink ref="I55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-1200-0000C7000000}"/>
+    <hyperlink ref="G55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-1200-0000C8000000}"/>
+    <hyperlink ref="H55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-1200-0000C9000000}"/>
+    <hyperlink ref="K55" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart" xr:uid="{00000000-0004-0000-1200-0000CA000000}"/>
+    <hyperlink ref="J56" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-0000CB000000}"/>
+    <hyperlink ref="J57" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-0000CC000000}"/>
+    <hyperlink ref="K57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-1200-0000CD000000}"/>
+    <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-1200-0000CE000000}"/>
+    <hyperlink ref="H59" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-0000CF000000}"/>
+    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-1200-0000D0000000}"/>
+    <hyperlink ref="H60" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-0000D1000000}"/>
+    <hyperlink ref="G59:G60" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-1200-0000D2000000}"/>
+    <hyperlink ref="G61" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-0000D3000000}"/>
+    <hyperlink ref="G62" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-0000D4000000}"/>
+    <hyperlink ref="G69" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-0000D5000000}"/>
+    <hyperlink ref="J71" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-0000D6000000}"/>
+    <hyperlink ref="G71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-1200-0000D7000000}"/>
+    <hyperlink ref="H71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-1200-0000D8000000}"/>
+    <hyperlink ref="I71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-1200-0000D9000000}"/>
+    <hyperlink ref="K71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail" xr:uid="{00000000-0004-0000-1200-0000DA000000}"/>
+    <hyperlink ref="L71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification" xr:uid="{00000000-0004-0000-1200-0000DB000000}"/>
+    <hyperlink ref="G56:G57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-1200-0000DC000000}"/>
+    <hyperlink ref="H56:H57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-1200-0000DD000000}"/>
+    <hyperlink ref="I56:I57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-1200-0000DE000000}"/>
+    <hyperlink ref="G63" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-1200-0000DF000000}"/>
+    <hyperlink ref="G64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-1200-0000E0000000}"/>
+    <hyperlink ref="G70" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-1200-0000E1000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:G7"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="79">
+        <v>52</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>542</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="79">
+        <v>53</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>541</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="57">
+        <v>54</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="78">
+        <v>55</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>620</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="57">
+        <v>56</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>622</v>
+      </c>
+      <c r="C6" s="80">
+        <v>1</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="57">
+        <v>56</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>622</v>
+      </c>
+      <c r="C7" s="80">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
+      <c r="D7" s="78" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="78">
+        <v>70</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>635</v>
+      </c>
+      <c r="C8" s="80">
+        <v>1</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="86" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="85" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>"All,Specific"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5F1C3B-6DBE-40A8-85AB-6B01044C63A0}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="115" customFormat="1">
+      <c r="A1" s="123" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="123" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="123" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="115" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="115" customFormat="1">
+      <c r="A2" s="115">
+        <v>76</v>
+      </c>
+      <c r="B2" s="115" t="s">
+        <v>644</v>
+      </c>
+      <c r="C2" s="115">
+        <v>1</v>
+      </c>
+      <c r="D2" s="115" t="s">
+        <v>647</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{9DB87A1B-8DBA-467E-A6D4-F61C0254BC3D}">
+      <formula1>"Credit Card (Processed By PayU),Visa Checkout,EFT Pro (Processed By PayU),Masterpass,Pay with PayGate,Cash Deposits"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9737,23 +9716,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" style="38" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="38"/>
+    <col min="11" max="16384" width="9.1796875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="55" customFormat="1">
@@ -9793,7 +9772,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C2" s="56">
         <v>1</v>
@@ -9823,7 +9802,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C3" s="56">
         <v>1</v>
@@ -9853,7 +9832,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C4" s="56">
         <v>1</v>
@@ -9883,7 +9862,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C5" s="56">
         <v>1</v>
@@ -9943,7 +9922,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C7" s="56">
         <v>1</v>
@@ -9973,7 +9952,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>87</v>
@@ -10003,7 +9982,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C9" s="56">
         <v>1</v>
@@ -10033,7 +10012,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C10" s="56">
         <v>1</v>
@@ -10062,7 +10041,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C11" s="56">
         <v>1</v>
@@ -10188,12 +10167,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10215,7 +10194,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C2" s="17">
         <v>1</v>
@@ -10229,7 +10208,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C3" s="17">
         <v>1</v>
@@ -10243,7 +10222,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C4" s="17">
         <v>1</v>
@@ -10257,7 +10236,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C5" s="17">
         <v>1</v>
@@ -10271,7 +10250,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C6" s="17">
         <v>1</v>
@@ -10299,7 +10278,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C8" s="17">
         <v>1</v>
@@ -10313,7 +10292,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C9" s="17">
         <v>1</v>
@@ -10327,7 +10306,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C10" s="17">
         <v>1</v>
@@ -10341,7 +10320,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C11" s="17">
         <v>1</v>
@@ -10355,7 +10334,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C12" s="17">
         <v>1</v>
@@ -10427,26 +10406,26 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="30">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="29">
       <c r="A1" s="37" t="s">
         <v>34</v>
       </c>
@@ -10501,13 +10480,13 @@
         <v>26</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C2" s="25">
         <v>1</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>402</v>
@@ -10551,13 +10530,13 @@
         <v>27</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C3" s="25">
         <v>1</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>402</v>
@@ -10601,13 +10580,13 @@
         <v>28</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C4" s="25">
         <v>1</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>402</v>
@@ -10651,13 +10630,13 @@
         <v>29</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>87</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>402</v>
@@ -10701,13 +10680,13 @@
         <v>30</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>87</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>402</v>
@@ -10757,7 +10736,7 @@
         <v>87</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>402</v>
@@ -10801,13 +10780,13 @@
         <v>32</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>87</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>402</v>
@@ -10851,13 +10830,13 @@
         <v>35</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>87</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>402</v>
@@ -11200,7 +11179,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="127" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C23" s="117">
         <v>1</v>
@@ -11211,7 +11190,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="127" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C24" s="117">
         <v>1</v>
@@ -11222,7 +11201,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="127" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C25" s="117">
         <v>1</v>
@@ -11233,7 +11212,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="127" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C26" s="117">
         <v>1</v>
@@ -11244,7 +11223,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="127" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C27" s="117">
         <v>1</v>
@@ -11277,7 +11256,7 @@
         <v>17</v>
       </c>
       <c r="B30" s="127" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C30" s="117">
         <v>1</v>
@@ -11288,7 +11267,7 @@
         <v>18</v>
       </c>
       <c r="B31" s="127" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C31" s="117">
         <v>1</v>
@@ -11299,7 +11278,7 @@
         <v>19</v>
       </c>
       <c r="B32" s="127" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C32" s="117">
         <v>1</v>
@@ -11310,7 +11289,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="127" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C33" s="117">
         <v>1</v>
@@ -11350,14 +11329,14 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="21.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="29"/>
+    <col min="1" max="1" width="21.1796875" style="29"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="29"/>
+    <col min="3" max="3" width="21.1796875" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -11371,13 +11350,13 @@
         <v>35</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E1" s="37" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
+    <row r="2" spans="1:5" ht="29">
       <c r="A2" s="45">
         <v>1</v>
       </c>
@@ -11388,7 +11367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30">
+    <row r="3" spans="1:5" ht="29">
       <c r="A3" s="45">
         <v>2</v>
       </c>
@@ -11399,7 +11378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
+    <row r="4" spans="1:5">
       <c r="A4" s="45">
         <v>3</v>
       </c>
@@ -11410,7 +11389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:5" ht="29">
       <c r="A5" s="45">
         <v>4</v>
       </c>
@@ -11421,7 +11400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30">
+    <row r="6" spans="1:5" ht="29">
       <c r="A6" s="45">
         <v>5</v>
       </c>
@@ -11459,7 +11438,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C9" s="29">
         <v>1</v>
@@ -11470,18 +11449,18 @@
         <v>18</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C10" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30">
+    <row r="11" spans="1:5">
       <c r="A11" s="45">
         <v>19</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C11" s="29">
         <v>1</v>
@@ -11492,7 +11471,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C12" s="29">
         <v>1</v>
@@ -11523,20 +11502,20 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="4" width="17.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -11579,7 +11558,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C2" s="30">
         <v>1</v>
@@ -11614,7 +11593,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C3" s="30">
         <v>1</v>
@@ -11649,7 +11628,7 @@
         <v>34</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C4" s="30">
         <v>1</v>
@@ -11696,16 +11675,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11722,12 +11699,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4" ht="29">
       <c r="A2" s="16">
         <v>26</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
@@ -11736,12 +11713,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="45">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="43.5">
       <c r="A3" s="16">
         <v>27</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C3" s="16">
         <v>1</v>
@@ -11750,12 +11727,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45">
+    <row r="4" spans="1:4" ht="43.5">
       <c r="A4" s="16">
         <v>28</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
@@ -11764,12 +11741,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30">
+    <row r="5" spans="1:4" ht="29">
       <c r="A5" s="16">
         <v>29</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C5" s="16">
         <v>1</v>
@@ -11778,12 +11755,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30">
+    <row r="6" spans="1:4" ht="29">
       <c r="A6" s="16">
         <v>30</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C6" s="16">
         <v>1</v>
@@ -11792,7 +11769,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30">
+    <row r="7" spans="1:4" ht="29">
       <c r="A7" s="16">
         <v>31</v>
       </c>
@@ -11811,7 +11788,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C8" s="16">
         <v>1</v>
@@ -11825,7 +11802,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C9" s="16">
         <v>1</v>
@@ -11839,7 +11816,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
@@ -11898,7 +11875,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11906,18 +11882,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -11945,7 +11919,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
@@ -11956,13 +11930,14 @@
       <c r="E2" s="16">
         <v>240</v>
       </c>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="16">
         <v>27</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C3" s="16">
         <v>1</v>
@@ -11973,13 +11948,14 @@
       <c r="E3" s="16">
         <v>240</v>
       </c>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1">
       <c r="A4" s="16">
         <v>28</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
@@ -11990,13 +11966,14 @@
       <c r="E4" s="16">
         <v>240</v>
       </c>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="16">
         <v>29</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C5" s="16">
         <v>1</v>
@@ -12007,13 +11984,14 @@
       <c r="E5" s="16">
         <v>240</v>
       </c>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="16">
         <v>30</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C6" s="16">
         <v>1</v>
@@ -12024,6 +12002,7 @@
       <c r="E6" s="16">
         <v>240</v>
       </c>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="16">
@@ -12041,13 +12020,14 @@
       <c r="E7" s="16">
         <v>240</v>
       </c>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="16">
         <v>32</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C8" s="16">
         <v>1</v>
@@ -12058,13 +12038,14 @@
       <c r="E8" s="16">
         <v>240</v>
       </c>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="16">
         <v>33</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C9" s="16">
         <v>1</v>
@@ -12075,13 +12056,14 @@
       <c r="E9" s="16">
         <v>240</v>
       </c>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="16">
         <v>34</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
@@ -12092,6 +12074,7 @@
       <c r="E10" s="16">
         <v>240</v>
       </c>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="42" t="s">
@@ -12109,6 +12092,7 @@
       <c r="E11" s="16">
         <v>240</v>
       </c>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="42" t="s">
@@ -12126,6 +12110,7 @@
       <c r="E12" s="16">
         <v>240</v>
       </c>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="42" t="s">
@@ -12143,13 +12128,13 @@
       <c r="E13" s="16">
         <v>240</v>
       </c>
+      <c r="F13" s="43"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B11:B13">
     <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12161,14 +12146,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="38" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="38"/>
+    <col min="5" max="5" width="13.54296875" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12193,7 +12178,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
@@ -12208,7 +12193,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C3" s="16">
         <v>1</v>
@@ -12223,7 +12208,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
@@ -12238,7 +12223,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C5" s="16">
         <v>1</v>
@@ -12248,12 +12233,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30">
+    <row r="6" spans="1:5" ht="29">
       <c r="A6" s="16">
         <v>30</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C6" s="16">
         <v>1</v>
@@ -12283,7 +12268,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C8" s="16">
         <v>1</v>
@@ -12298,7 +12283,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C9" s="16">
         <v>1</v>
@@ -12313,7 +12298,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C10" s="16">
         <v>1</v>
@@ -12394,14 +12379,14 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -12579,7 +12564,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C11" s="16">
         <v>1</v>
@@ -12613,7 +12598,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C13" s="16">
         <v>1</v>
@@ -12630,7 +12615,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C14" s="16">
         <v>1</v>
@@ -12647,7 +12632,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C15" s="16">
         <v>1</v>
@@ -12698,7 +12683,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C18" s="16">
         <v>1</v>
@@ -12715,7 +12700,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C19" s="16">
         <v>1</v>
@@ -12732,7 +12717,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C20" s="16">
         <v>1</v>
@@ -12749,7 +12734,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C21" s="16">
         <v>1</v>
@@ -12766,7 +12751,7 @@
         <v>26</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C22" s="16">
         <v>1</v>
@@ -12783,7 +12768,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C23" s="16">
         <v>1</v>
@@ -12800,7 +12785,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C24" s="16">
         <v>1</v>
@@ -12817,7 +12802,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C25" s="16">
         <v>1</v>
@@ -12834,7 +12819,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C26" s="16">
         <v>1</v>
@@ -12868,7 +12853,7 @@
         <v>32</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C28" s="16">
         <v>1</v>
@@ -12885,7 +12870,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C29" s="16">
         <v>1</v>
@@ -12902,7 +12887,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C30" s="16">
         <v>1</v>
@@ -12920,7 +12905,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C31" s="16">
         <v>1</v>
@@ -12937,7 +12922,7 @@
         <v>38</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C32" s="16">
         <v>1</v>
@@ -13039,105 +13024,206 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5" style="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="85" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="85"/>
+    <col min="1" max="1" width="5" style="77" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="77" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="77" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="77" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="77" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="77" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="84">
+      <c r="D1" s="77" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="77" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="76">
         <v>52</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="76" t="s">
+        <v>542</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F2" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G2" s="77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="76">
+        <v>53</v>
+      </c>
+      <c r="B3" s="76" t="s">
         <v>541</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C3" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="84">
-        <v>53</v>
-      </c>
-      <c r="B3" s="84" t="s">
-        <v>540</v>
-      </c>
-      <c r="C3" s="85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>430</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G3" s="77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="57">
         <v>54</v>
       </c>
       <c r="B4" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>430</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G4" s="77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="57">
+        <v>55</v>
+      </c>
+      <c r="B5" s="67" t="s">
         <v>620</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C5" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="83">
-        <v>55</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>619</v>
-      </c>
-      <c r="C5" s="85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F5" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G5" s="75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="57">
         <v>56</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>621</v>
-      </c>
-      <c r="C6" s="85" t="s">
+        <v>622</v>
+      </c>
+      <c r="C6" s="77" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="83">
+      <c r="D6" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G6" s="75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="75">
         <v>70</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>634</v>
-      </c>
-      <c r="C7" s="85" t="s">
+        <v>635</v>
+      </c>
+      <c r="C7" s="77" t="s">
         <v>87</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>428</v>
+      </c>
+      <c r="F7" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="G7" s="75">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="77" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="76" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="1"/>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>"ExistingUser,logedOn_user"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13150,16 +13236,16 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="11"/>
+    <col min="4" max="4" width="7.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -13176,67 +13262,67 @@
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4" ht="29">
       <c r="A2" s="16">
         <v>26</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C2" s="16">
         <v>1</v>
       </c>
       <c r="D2" s="16"/>
     </row>
-    <row r="3" spans="1:4" ht="45">
+    <row r="3" spans="1:4" ht="43.5">
       <c r="A3" s="16">
         <v>27</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C3" s="16">
         <v>1</v>
       </c>
       <c r="D3" s="16"/>
     </row>
-    <row r="4" spans="1:4" ht="45">
+    <row r="4" spans="1:4" ht="43.5">
       <c r="A4" s="16">
         <v>28</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
       </c>
       <c r="D4" s="16"/>
     </row>
-    <row r="5" spans="1:4" ht="30">
+    <row r="5" spans="1:4" ht="29">
       <c r="A5" s="16">
         <v>29</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C5" s="16">
         <v>1</v>
       </c>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="1:4" ht="30">
+    <row r="6" spans="1:4" ht="29">
       <c r="A6" s="16">
         <v>30</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C6" s="16">
         <v>1</v>
       </c>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="1:4" ht="30">
+    <row r="7" spans="1:4" ht="29">
       <c r="A7" s="16">
         <v>31</v>
       </c>
@@ -13309,32 +13395,32 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="86" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="86" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="86" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="86" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.5703125" style="86" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="86" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="86" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="86" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" style="86" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="86" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2" style="86" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="86"/>
+    <col min="4" max="4" width="20.7265625" style="86" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.54296875" style="86" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" style="86" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" style="86" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="86" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7265625" style="86" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.26953125" style="86" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" style="86" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10">
       <c r="A1" s="82" t="s">
         <v>34</v>
       </c>
@@ -13363,7 +13449,7 @@
         <v>149</v>
       </c>
       <c r="J1" s="82" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -13371,7 +13457,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C2" s="87" t="s">
         <v>87</v>
@@ -13380,7 +13466,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="87" t="s">
-        <v>641</v>
+        <v>212</v>
       </c>
       <c r="F2" s="86" t="s">
         <v>407</v>
@@ -13395,7 +13481,7 @@
         <v>315</v>
       </c>
       <c r="J2" s="86" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -13403,7 +13489,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="87" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C3" s="87" t="s">
         <v>87</v>
@@ -13427,15 +13513,15 @@
         <v>315</v>
       </c>
       <c r="J3" s="86" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="29">
       <c r="A4" s="87">
         <v>28</v>
       </c>
       <c r="B4" s="87" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C4" s="87" t="s">
         <v>87</v>
@@ -13459,7 +13545,7 @@
         <v>315</v>
       </c>
       <c r="J4" s="86" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13467,7 +13553,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="87" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C5" s="87" t="s">
         <v>87</v>
@@ -13491,7 +13577,7 @@
         <v>315</v>
       </c>
       <c r="J5" s="86" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -13499,7 +13585,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="87" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C6" s="87" t="s">
         <v>87</v>
@@ -13523,7 +13609,7 @@
         <v>315</v>
       </c>
       <c r="J6" s="86" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13540,7 +13626,7 @@
         <v>150</v>
       </c>
       <c r="E7" s="87" t="s">
-        <v>602</v>
+        <v>212</v>
       </c>
       <c r="F7" s="86" t="s">
         <v>407</v>
@@ -13555,7 +13641,7 @@
         <v>315</v>
       </c>
       <c r="J7" s="86" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13563,7 +13649,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="87" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C8" s="87" t="s">
         <v>87</v>
@@ -13587,7 +13673,7 @@
         <v>315</v>
       </c>
       <c r="J8" s="86" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -13595,7 +13681,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="87" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C9" s="87" t="s">
         <v>87</v>
@@ -13619,7 +13705,7 @@
         <v>315</v>
       </c>
       <c r="J9" s="86" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -13651,7 +13737,7 @@
         <v>315</v>
       </c>
       <c r="J10" s="86" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -13683,7 +13769,7 @@
         <v>315</v>
       </c>
       <c r="J11" s="86" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -13715,7 +13801,7 @@
         <v>315</v>
       </c>
       <c r="J12" s="86" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -13723,7 +13809,7 @@
         <v>53</v>
       </c>
       <c r="B13" s="81" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C13" s="86" t="s">
         <v>87</v>
@@ -13747,7 +13833,7 @@
         <v>315</v>
       </c>
       <c r="J13" s="86" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -13755,7 +13841,7 @@
         <v>54</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C14" s="89" t="s">
         <v>87</v>
@@ -13764,7 +13850,7 @@
         <v>150</v>
       </c>
       <c r="E14" s="89" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F14" s="89" t="s">
         <v>411</v>
@@ -13779,7 +13865,7 @@
         <v>315</v>
       </c>
       <c r="J14" s="89" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -13787,7 +13873,7 @@
         <v>55</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C15" s="89" t="s">
         <v>87</v>
@@ -13796,7 +13882,7 @@
         <v>150</v>
       </c>
       <c r="E15" s="89" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F15" s="89" t="s">
         <v>411</v>
@@ -13805,13 +13891,13 @@
         <v>412</v>
       </c>
       <c r="H15" s="89" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I15" s="89" t="s">
         <v>315</v>
       </c>
       <c r="J15" s="89" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -13819,7 +13905,7 @@
         <v>56</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C16" s="89">
         <v>1</v>
@@ -13828,7 +13914,7 @@
         <v>150</v>
       </c>
       <c r="E16" s="89" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F16" s="89" t="s">
         <v>411</v>
@@ -13843,7 +13929,7 @@
         <v>315</v>
       </c>
       <c r="J16" s="89" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -13851,7 +13937,7 @@
         <v>58</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C17" s="89">
         <v>1</v>
@@ -13860,7 +13946,7 @@
         <v>150</v>
       </c>
       <c r="E17" s="89" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F17" s="89" t="s">
         <v>407</v>
@@ -13875,7 +13961,7 @@
         <v>6</v>
       </c>
       <c r="J17" s="89" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -13883,7 +13969,7 @@
         <v>59</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C18" s="89">
         <v>1</v>
@@ -13892,7 +13978,7 @@
         <v>150</v>
       </c>
       <c r="E18" s="89" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F18" s="89" t="s">
         <v>407</v>
@@ -13907,7 +13993,7 @@
         <v>6</v>
       </c>
       <c r="J18" s="89" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13915,7 +14001,7 @@
         <v>60</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C19" s="89">
         <v>1</v>
@@ -13924,7 +14010,7 @@
         <v>150</v>
       </c>
       <c r="E19" s="89" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F19" s="89" t="s">
         <v>407</v>
@@ -13939,7 +14025,7 @@
         <v>6</v>
       </c>
       <c r="J19" s="89" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -13947,7 +14033,7 @@
         <v>61</v>
       </c>
       <c r="B20" s="89" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C20" s="89">
         <v>1</v>
@@ -13956,7 +14042,7 @@
         <v>151</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F20" s="89" t="s">
         <v>407</v>
@@ -13965,13 +14051,13 @@
         <v>408</v>
       </c>
       <c r="H20" s="89" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I20" s="89">
         <v>6</v>
       </c>
       <c r="J20" s="89" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -13979,7 +14065,7 @@
         <v>68</v>
       </c>
       <c r="B21" s="89" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C21" s="89" t="s">
         <v>87</v>
@@ -13988,13 +14074,13 @@
         <v>150</v>
       </c>
       <c r="E21" s="89" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F21" s="89" t="s">
         <v>411</v>
       </c>
       <c r="G21" s="89" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H21" s="89">
         <v>1</v>
@@ -14003,7 +14089,7 @@
         <v>315</v>
       </c>
       <c r="J21" s="89" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -14011,7 +14097,7 @@
         <v>69</v>
       </c>
       <c r="B22" s="89" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C22" s="89">
         <v>1</v>
@@ -14020,13 +14106,13 @@
         <v>150</v>
       </c>
       <c r="E22" s="89" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F22" s="89" t="s">
         <v>411</v>
       </c>
       <c r="G22" s="89" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H22" s="89" t="s">
         <v>417</v>
@@ -14035,7 +14121,7 @@
         <v>6</v>
       </c>
       <c r="J22" s="89" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -14043,7 +14129,7 @@
         <v>70</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C23" s="89" t="s">
         <v>87</v>
@@ -14052,7 +14138,7 @@
         <v>150</v>
       </c>
       <c r="E23" s="89" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F23" s="89" t="s">
         <v>411</v>
@@ -14067,7 +14153,71 @@
         <v>315</v>
       </c>
       <c r="J23" s="89" t="s">
-        <v>576</v>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="115" customFormat="1">
+      <c r="A24" s="115">
+        <v>75</v>
+      </c>
+      <c r="B24" s="115" t="s">
+        <v>642</v>
+      </c>
+      <c r="C24" s="115">
+        <v>1</v>
+      </c>
+      <c r="D24" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="115" t="s">
+        <v>603</v>
+      </c>
+      <c r="F24" s="115" t="s">
+        <v>407</v>
+      </c>
+      <c r="G24" s="115" t="s">
+        <v>408</v>
+      </c>
+      <c r="H24" s="115">
+        <v>1</v>
+      </c>
+      <c r="I24" s="115">
+        <v>6</v>
+      </c>
+      <c r="J24" s="126" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="115" customFormat="1">
+      <c r="A25" s="115">
+        <v>76</v>
+      </c>
+      <c r="B25" s="115" t="s">
+        <v>644</v>
+      </c>
+      <c r="C25" s="115">
+        <v>1</v>
+      </c>
+      <c r="D25" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="115" t="s">
+        <v>648</v>
+      </c>
+      <c r="F25" s="115" t="s">
+        <v>407</v>
+      </c>
+      <c r="G25" s="115" t="s">
+        <v>408</v>
+      </c>
+      <c r="H25" s="115">
+        <v>1</v>
+      </c>
+      <c r="I25" s="115">
+        <v>6</v>
+      </c>
+      <c r="J25" s="115" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -14081,15 +14231,21 @@
   <conditionalFormatting sqref="A13">
     <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G13" xr:uid="{00000000-0002-0000-1D00-000000000000}">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F13" xr:uid="{00000000-0002-0000-1D00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F13 F24:F25" xr:uid="{00000000-0002-0000-1D00-000001000000}">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J13" xr:uid="{00000000-0002-0000-1D00-000002000000}">
       <formula1>"Yes_Wishlist,No_wishlist"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G24:G25" xr:uid="{EFBD3425-6BDC-4B42-A3DC-2014798AC59E}">
+      <formula1>"Add_To_Cart,Add_To_Wishlist,Validate_Out_Of_Stock"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D25" xr:uid="{B979799E-819B-4F38-8FEA-556FDD7577ED}">
+      <formula1>$K$2:$K$18</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14108,7 +14264,7 @@
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D24:D1048576</xm:sqref>
+          <xm:sqref>D26:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14124,13 +14280,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14145,10 +14301,10 @@
         <v>35</v>
       </c>
       <c r="D1" s="93" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E1" s="93" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F1" s="93" t="s">
         <v>426</v>
@@ -14159,16 +14315,16 @@
         <v>54</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C2" s="93" t="s">
         <v>87</v>
       </c>
       <c r="D2" s="93" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E2" s="92" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F2" s="93">
         <v>11</v>
@@ -14187,14 +14343,14 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.26953125" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="37" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -14229,57 +14385,57 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="43" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="43" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="43" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="43" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="43" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="43" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="43" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="43" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="43" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="43" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="43" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -14295,14 +14451,14 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="31"/>
+    <col min="4" max="4" width="18.54296875" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -14327,7 +14483,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C2" s="31">
         <v>1</v>
@@ -14344,7 +14500,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C3" s="31">
         <v>1</v>
@@ -14370,14 +14526,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -14448,20 +14604,20 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="100" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="100" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="100" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="100" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="100" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="100" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="100"/>
+    <col min="5" max="5" width="14.453125" style="100" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="100"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -14520,7 +14676,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C4" s="98">
         <v>1</v>
@@ -14537,7 +14693,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="96" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C5" s="98">
         <v>1</v>
@@ -14554,7 +14710,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="96" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C6" s="98">
         <v>1</v>
@@ -14571,7 +14727,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="96" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C7" s="98">
         <v>1</v>
@@ -14588,7 +14744,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="96" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C8" s="98">
         <v>1</v>
@@ -14605,7 +14761,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C9" s="98">
         <v>1</v>
@@ -14707,7 +14863,7 @@
         <v>57</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C15" s="98">
         <v>1</v>
@@ -14724,7 +14880,7 @@
         <v>64</v>
       </c>
       <c r="B16" s="67" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C16" s="98">
         <v>1</v>
@@ -14741,7 +14897,7 @@
         <v>65</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C17" s="98">
         <v>1</v>
@@ -14751,6 +14907,23 @@
       </c>
       <c r="E17" s="97" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="115" customFormat="1">
+      <c r="A18" s="142">
+        <v>76</v>
+      </c>
+      <c r="B18" s="115" t="s">
+        <v>644</v>
+      </c>
+      <c r="C18" s="115">
+        <v>1</v>
+      </c>
+      <c r="D18" s="115" t="s">
+        <v>649</v>
+      </c>
+      <c r="E18" s="115" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -14786,16 +14959,16 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14815,7 +14988,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="106" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C2" s="104">
         <v>1</v>
@@ -14826,7 +14999,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C3" s="104">
         <v>1</v>
@@ -14837,9 +15010,20 @@
         <v>59</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C4" s="104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="143">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>644</v>
+      </c>
+      <c r="C5" s="144">
         <v>1</v>
       </c>
     </row>
@@ -14856,15 +15040,15 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -14878,13 +15062,13 @@
         <v>35</v>
       </c>
       <c r="D1" s="108" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E1" s="108" t="s">
         <v>82</v>
       </c>
       <c r="F1" s="108" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G1" s="108" t="s">
         <v>83</v>
@@ -14895,7 +15079,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="110" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C2" s="108">
         <v>1</v>
@@ -14904,7 +15088,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="108" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F2" s="108" t="s">
         <v>9</v>
@@ -14918,7 +15102,7 @@
         <v>63</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C3" s="108">
         <v>1</v>
@@ -14933,7 +15117,7 @@
         <v>91</v>
       </c>
       <c r="G3" s="107" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -14953,13 +15137,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -14973,10 +15157,10 @@
         <v>35</v>
       </c>
       <c r="D1" s="113" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E1" s="113" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14984,7 +15168,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="114" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C2" s="114">
         <v>1</v>
@@ -15002,144 +15186,394 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5" style="80" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="80" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="80"/>
+    <col min="1" max="1" width="5" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="80" t="s">
-        <v>431</v>
+      <c r="D1" s="51" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="79">
-        <v>52</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>541</v>
-      </c>
-      <c r="C2" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="80" t="s">
-        <v>432</v>
+      <c r="A2" s="45">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="51">
+        <v>1</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="79">
-        <v>53</v>
-      </c>
-      <c r="B3" s="79" t="s">
-        <v>540</v>
-      </c>
-      <c r="C3" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>432</v>
+      <c r="A3" s="45">
+        <v>2</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="57">
-        <v>54</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>620</v>
-      </c>
-      <c r="C4" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="80" t="s">
-        <v>432</v>
+      <c r="A4" s="45">
+        <v>3</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>510</v>
+      </c>
+      <c r="C4" s="51">
+        <v>1</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="78">
-        <v>55</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>619</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>432</v>
+      <c r="A5" s="45">
+        <v>4</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>511</v>
+      </c>
+      <c r="C5" s="51">
+        <v>1</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="57">
-        <v>56</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>621</v>
-      </c>
-      <c r="C6" s="80">
-        <v>1</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>432</v>
+      <c r="A6" s="45">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>512</v>
+      </c>
+      <c r="C6" s="51">
+        <v>1</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="57">
-        <v>56</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>621</v>
-      </c>
-      <c r="C7" s="80">
-        <v>2</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>432</v>
+      <c r="A7" s="45">
+        <v>6</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>513</v>
+      </c>
+      <c r="C7" s="51">
+        <v>1</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="78">
-        <v>70</v>
-      </c>
-      <c r="B8" s="67" t="s">
-        <v>634</v>
-      </c>
-      <c r="C8" s="80">
-        <v>1</v>
-      </c>
-      <c r="D8" s="78" t="s">
-        <v>432</v>
+      <c r="A8" s="45">
+        <v>7</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>514</v>
+      </c>
+      <c r="C8" s="51">
+        <v>1</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="45">
+        <v>8</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>515</v>
+      </c>
+      <c r="C9" s="51">
+        <v>1</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="45">
+        <v>9</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>516</v>
+      </c>
+      <c r="C10" s="51">
+        <v>1</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="45">
+        <v>10</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="C11" s="51">
+        <v>1</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="45">
+        <v>11</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="51">
+        <v>1</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="45">
+        <v>12</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>533</v>
+      </c>
+      <c r="C13" s="51">
+        <v>1</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="45">
+        <v>13</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="C14" s="51">
+        <v>1</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="45">
+        <v>14</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>535</v>
+      </c>
+      <c r="C15" s="51">
+        <v>1</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="45">
+        <v>15</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>517</v>
+      </c>
+      <c r="C16" s="51">
+        <v>1</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="45">
+        <v>16</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="C17" s="51">
+        <v>1</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="45">
+        <v>17</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>560</v>
+      </c>
+      <c r="C18" s="51">
+        <v>1</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="45">
+        <v>18</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C19" s="51">
+        <v>1</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="45">
+        <v>19</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>537</v>
+      </c>
+      <c r="C20" s="51">
+        <v>1</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="45">
+        <v>20</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>538</v>
+      </c>
+      <c r="C21" s="51">
+        <v>1</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="45">
+        <v>31</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="C22" s="51">
+        <v>1</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="47">
+        <v>39</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>520</v>
+      </c>
+      <c r="C23" s="51">
+        <v>1</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="47">
+        <v>40</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>521</v>
+      </c>
+      <c r="C24" s="51">
+        <v>1</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="47">
+        <v>41</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>522</v>
+      </c>
+      <c r="C25" s="51">
+        <v>1</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
+  <conditionalFormatting sqref="A2:A21">
+    <cfRule type="duplicateValues" dxfId="82" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="74" priority="1"/>
+  <conditionalFormatting sqref="B2:B21">
+    <cfRule type="duplicateValues" dxfId="81" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="duplicateValues" dxfId="80" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="79" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:A25">
+    <cfRule type="duplicateValues" dxfId="78" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B25">
+    <cfRule type="duplicateValues" dxfId="77" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-0200-000000000000}">
-      <formula1>"All,Specific"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>"Update Account,Update Account Magento Admin,Create Account,Create Account Magento Admin,Guest Customer Creation,Registered customer from sales order"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15154,20 +15588,20 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -15196,7 +15630,7 @@
         <v>182</v>
       </c>
       <c r="I1" s="123" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="J1" s="123" t="s">
         <v>176</v>
@@ -15213,7 +15647,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C2" s="123" t="s">
         <v>87</v>
@@ -15234,7 +15668,7 @@
         <v>304</v>
       </c>
       <c r="I2" s="123" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="J2" s="123" t="s">
         <v>304</v>
@@ -15262,14 +15696,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -15374,19 +15808,19 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -15472,12 +15906,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1">
@@ -15518,24 +15952,24 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30">
+    <row r="1" spans="1:12" ht="29">
       <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
@@ -15800,7 +16234,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="127" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C11" s="117">
         <v>1</v>
@@ -15811,7 +16245,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="127" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C12" s="117">
         <v>1</v>
@@ -15822,7 +16256,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="127" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C13" s="117">
         <v>1</v>
@@ -15833,7 +16267,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="127" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C14" s="117">
         <v>1</v>
@@ -15844,7 +16278,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="127" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C15" s="117">
         <v>1</v>
@@ -15877,7 +16311,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="127" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C18" s="117">
         <v>1</v>
@@ -15888,7 +16322,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="127" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C19" s="117">
         <v>1</v>
@@ -15899,7 +16333,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="127" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C20" s="117">
         <v>1</v>
@@ -15910,7 +16344,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="127" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C21" s="117">
         <v>1</v>
@@ -16003,34 +16437,34 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" style="125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" style="125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.54296875" style="125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" style="125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11" style="125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" style="125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" style="125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" style="125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.42578125" style="125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.42578125" style="125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" style="125" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="125"/>
+    <col min="12" max="12" width="20.81640625" style="125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7265625" style="125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" style="125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.1796875" style="125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.54296875" style="125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7265625" style="125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.453125" style="125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.453125" style="125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.1796875" style="125" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.1796875" style="125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -16065,7 +16499,7 @@
         <v>66</v>
       </c>
       <c r="K1" s="91" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L1" s="91" t="s">
         <v>122</v>
@@ -16139,7 +16573,7 @@
         <v>94</v>
       </c>
       <c r="O2" s="122" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="P2" s="117" t="s">
         <v>92</v>
@@ -16201,7 +16635,7 @@
         <v>94</v>
       </c>
       <c r="O3" s="122" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="P3" s="117" t="s">
         <v>92</v>
@@ -16325,7 +16759,7 @@
         <v>94</v>
       </c>
       <c r="O5" s="122" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="P5" s="117" t="s">
         <v>92</v>
@@ -16387,7 +16821,7 @@
         <v>94</v>
       </c>
       <c r="O6" s="122" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="P6" s="117" t="s">
         <v>92</v>
@@ -16410,7 +16844,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="120" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C7" s="117">
         <v>1</v>
@@ -16472,7 +16906,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="120" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C8" s="117">
         <v>1</v>
@@ -16529,12 +16963,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="30">
+    <row r="9" spans="1:20">
       <c r="A9" s="119">
         <v>23</v>
       </c>
       <c r="B9" s="120" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C9" s="117">
         <v>1</v>
@@ -16591,12 +17025,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="30">
+    <row r="10" spans="1:20">
       <c r="A10" s="119">
         <v>24</v>
       </c>
       <c r="B10" s="120" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C10" s="117">
         <v>1</v>
@@ -16658,7 +17092,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="120" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C11" s="117">
         <v>1</v>
@@ -16776,7 +17210,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="127" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C16" s="117">
         <v>1</v>
@@ -16790,7 +17224,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="127" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C17" s="117">
         <v>1</v>
@@ -16804,7 +17238,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="127" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C18" s="117">
         <v>1</v>
@@ -16818,7 +17252,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="127" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C19" s="117">
         <v>1</v>
@@ -16832,7 +17266,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="127" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C20" s="117">
         <v>1</v>
@@ -16874,7 +17308,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="127" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C23" s="117">
         <v>1</v>
@@ -16888,7 +17322,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="127" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C24" s="117">
         <v>1</v>
@@ -16902,7 +17336,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="127" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C25" s="117">
         <v>1</v>
@@ -16916,7 +17350,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="127" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C26" s="117">
         <v>1</v>
@@ -17027,14 +17461,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1">
@@ -17131,12 +17565,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
@@ -17335,14 +17769,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -17439,14 +17873,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -17536,206 +17970,95 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="5" style="77" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="77" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="77" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="77" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="77" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="77" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="77"/>
+    <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="77" t="s">
-        <v>425</v>
-      </c>
-      <c r="E1" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="77" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="76">
-        <v>52</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>541</v>
-      </c>
-      <c r="C2" s="77" t="s">
+      <c r="D1" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="38">
+        <v>47</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>527</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>428</v>
-      </c>
-      <c r="F2" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G2" s="77">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="76">
-        <v>53</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>540</v>
-      </c>
-      <c r="C3" s="77" t="s">
+      <c r="D2" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="38">
+        <v>48</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>528</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>430</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G3" s="77">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="57">
-        <v>54</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>620</v>
-      </c>
-      <c r="C4" s="77" t="s">
+      <c r="D3" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="38">
+        <v>49</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>430</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G4" s="77">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="57">
-        <v>55</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>619</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>428</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G5" s="75">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="57">
-        <v>56</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>621</v>
-      </c>
-      <c r="C6" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>428</v>
-      </c>
-      <c r="F6" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G6" s="75">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="75">
-        <v>70</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>634</v>
-      </c>
-      <c r="C7" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>428</v>
-      </c>
-      <c r="F7" s="77" t="s">
-        <v>429</v>
-      </c>
-      <c r="G7" s="75">
-        <v>11</v>
+      <c r="D4" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="73" priority="2"/>
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="duplicateValues" dxfId="76" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="72" priority="1"/>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-0300-000000000000}">
-      <formula1>"ExistingUser,logedOn_user"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17748,9 +18071,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -18121,14 +18444,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -18225,14 +18548,14 @@
       <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -18322,510 +18645,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="50"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="45">
-        <v>1</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>508</v>
-      </c>
-      <c r="C2" s="51">
-        <v>1</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="45">
-        <v>2</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>509</v>
-      </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="45">
-        <v>3</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>510</v>
-      </c>
-      <c r="C4" s="51">
-        <v>1</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="45">
-        <v>4</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>511</v>
-      </c>
-      <c r="C5" s="51">
-        <v>1</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="45">
-        <v>5</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>512</v>
-      </c>
-      <c r="C6" s="51">
-        <v>1</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="45">
-        <v>6</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>513</v>
-      </c>
-      <c r="C7" s="51">
-        <v>1</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="45">
-        <v>7</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>514</v>
-      </c>
-      <c r="C8" s="51">
-        <v>1</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="45">
-        <v>8</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>515</v>
-      </c>
-      <c r="C9" s="51">
-        <v>1</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="45">
-        <v>9</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>516</v>
-      </c>
-      <c r="C10" s="51">
-        <v>1</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="45">
-        <v>10</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>530</v>
-      </c>
-      <c r="C11" s="51">
-        <v>1</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="45">
-        <v>11</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>222</v>
-      </c>
-      <c r="C12" s="51">
-        <v>1</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="45">
-        <v>12</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>532</v>
-      </c>
-      <c r="C13" s="51">
-        <v>1</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="45">
-        <v>13</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>533</v>
-      </c>
-      <c r="C14" s="51">
-        <v>1</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="45">
-        <v>14</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>534</v>
-      </c>
-      <c r="C15" s="51">
-        <v>1</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="45">
-        <v>15</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>517</v>
-      </c>
-      <c r="C16" s="51">
-        <v>1</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="45">
-        <v>16</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>518</v>
-      </c>
-      <c r="C17" s="51">
-        <v>1</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="45">
-        <v>17</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>559</v>
-      </c>
-      <c r="C18" s="51">
-        <v>1</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="45">
-        <v>18</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>535</v>
-      </c>
-      <c r="C19" s="51">
-        <v>1</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="45">
-        <v>19</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>536</v>
-      </c>
-      <c r="C20" s="51">
-        <v>1</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="45">
-        <v>20</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>537</v>
-      </c>
-      <c r="C21" s="51">
-        <v>1</v>
-      </c>
-      <c r="D21" s="51" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="45">
-        <v>31</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>519</v>
-      </c>
-      <c r="C22" s="51">
-        <v>1</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="47">
-        <v>39</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>520</v>
-      </c>
-      <c r="C23" s="51">
-        <v>1</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="47">
-        <v>40</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>521</v>
-      </c>
-      <c r="C24" s="51">
-        <v>1</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="47">
-        <v>41</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>522</v>
-      </c>
-      <c r="C25" s="51">
-        <v>1</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>400</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2:A21">
-    <cfRule type="duplicateValues" dxfId="71" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B21">
-    <cfRule type="duplicateValues" dxfId="70" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="69" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="68" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:A25">
-    <cfRule type="duplicateValues" dxfId="67" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B25">
-    <cfRule type="duplicateValues" dxfId="66" priority="2"/>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
-      <formula1>"Update Account,Update Account Magento Admin,Create Account,Create Account Magento Admin,Guest Customer Creation,Registered customer from sales order"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>395</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="38">
-        <v>47</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>527</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="38">
-        <v>48</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>528</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="38">
-        <v>49</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>529</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>399</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:B4">
-    <cfRule type="duplicateValues" dxfId="65" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.453125" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="36"/>
+    <col min="4" max="4" width="15.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -18850,7 +18684,7 @@
         <v>48</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>87</v>
@@ -18864,39 +18698,39 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="64" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="63" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1796875" style="36" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="36"/>
+    <col min="13" max="13" width="17.7265625" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -19024,16 +18858,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="62" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="61" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19041,25 +18875,296 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.26953125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="48">
+        <v>46</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>526</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="48">
+        <v>47</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="71" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="70" priority="2"/>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0700-000000000000}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0700-000001000000}">
+      <formula1>"ABSA,AFRICAN BANK,BIDVEST.CAPITEC,FNB,INVESTEC,NEDBANK,STANDARD BANK SA"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0700-000002000000}">
+      <formula1>"English,Afrikaans,Sesotho,Xhosa,Zulu"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="5" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.26953125" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="48">
+        <v>46</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>526</v>
+      </c>
+      <c r="C2" s="36">
+        <v>1</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="I2" s="36">
+        <v>2313</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="48">
+        <v>47</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" s="36">
+        <v>1</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="I3" s="36">
+        <v>2313</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="duplicateValues" dxfId="69" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="68" priority="2"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0800-000000000000}">
+      <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000001000000}">
+          <x14:formula1>
+            <xm:f>'Preferred Store'!$A$2:$A$71</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2:K1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E4315169E4449459811E1A2A421A5D2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="484de8a0a7035cbf3240ac5ef037eda8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="38ec8e4d-8506-4d8b-b040-96d37469ddf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40b4f8b6fbe630a6badbf346a8d0e64c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -19208,32 +19313,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED871C4-2A4D-4B74-98A2-587321F60978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19250,4 +19348,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D73877E0-ACC9-4E95-9DFE-6B4A6282CC78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="38ec8e4d-8506-4d8b-b040-96d37469ddf9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>